--- a/Document Files/Sign Template Lists.xlsx
+++ b/Document Files/Sign Template Lists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repo\TemplateRepo\Document Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50AB548E-9504-4C37-96B9-E10D76E3E7C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25646CCE-8707-4852-8D9D-E1180712C608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{48962D2D-F122-4A88-A158-2C97D5FEC614}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="149">
   <si>
     <t>Panel Signs</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Pill Box or FCO Mixed</t>
   </si>
   <si>
-    <t>Window Vinyl</t>
-  </si>
-  <si>
     <t>Perf Vinyl Digitally Printed</t>
   </si>
   <si>
@@ -481,6 +478,12 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>Window Vinyl - White</t>
+  </si>
+  <si>
+    <t>Cut vinyl - applied</t>
   </si>
 </sst>
 </file>
@@ -846,14 +849,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1201,10 +1204,10 @@
         <v>83</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>73</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>0</v>
@@ -1220,7 +1223,7 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,10 +1238,10 @@
         <v>IS11</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1246,14 +1249,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="str">
         <f>"I"&amp;$A$2&amp;A4</f>
         <v>IS12</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1261,14 +1264,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="12" t="str">
         <f>"I"&amp;$A$2&amp;A5</f>
         <v>IS13</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1283,7 +1286,7 @@
         <v>IS14</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="12" t="str">
         <f>"I"&amp;$A$2&amp;A7</f>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>1</v>
@@ -1334,7 +1337,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>6</v>
@@ -1347,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="12" t="str">
         <f>"I"&amp;$A$11&amp;A12</f>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>7</v>
@@ -1381,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="12" t="str">
         <f>"I"&amp;$A$13&amp;A15</f>
@@ -1393,19 +1396,19 @@
         <v>3</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="12" t="str">
         <f>"I"&amp;$A$13&amp;A16</f>
         <v>IS43</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>72</v>
@@ -1418,7 +1421,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="12" t="str">
         <f>"I"&amp;$A$17&amp;A18</f>
@@ -1430,7 +1433,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C19" s="12" t="str">
         <f>"I"&amp;$A$17&amp;A19</f>
@@ -1442,7 +1445,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="12" t="str">
         <f>"I"&amp;$A$17&amp;A20</f>
@@ -1460,10 +1463,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,10 +1486,10 @@
         <v>83</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>93</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>73</v>
@@ -1494,7 +1497,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="26" t="s">
         <v>74</v>
@@ -1502,7 +1505,7 @@
       <c r="C2" s="26"/>
       <c r="D2" s="26"/>
       <c r="E2" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1517,10 +1520,10 @@
         <v>ES11</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1535,7 +1538,7 @@
         <v>ES12</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1550,7 +1553,7 @@
         <v>ES13</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1565,7 +1568,7 @@
         <v>ES14</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1582,7 +1585,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>1</v>
@@ -1628,7 +1631,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="30" t="s">
         <v>75</v>
@@ -1770,7 +1773,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>7</v>
@@ -1783,10 +1786,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C25" s="12" t="str">
-        <f>"E"&amp;A24&amp;A25</f>
+        <f>"E"&amp;$A$24&amp;A25</f>
         <v>ES41</v>
       </c>
     </row>
@@ -1795,801 +1798,810 @@
         <v>2</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="12" t="str">
-        <f>"E"&amp;A24&amp;A26</f>
+        <f>"E"&amp;$A$24&amp;A26</f>
         <v>ES42</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="17" t="s">
+      <c r="A27" s="18">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="12" t="str">
+        <f>"E"&amp;$A$24&amp;A27</f>
+        <v>ES43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="8">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="12" t="str">
-        <f>"E"&amp;A27&amp;A28</f>
-        <v>ES51</v>
-      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="12" t="str">
-        <f>"E"&amp;A27&amp;A29</f>
-        <v>ES52</v>
+        <f>"E"&amp;A28&amp;A29</f>
+        <v>ES51</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C30" s="12" t="str">
-        <f>"E"&amp;A27&amp;A30</f>
-        <v>ES53</v>
+        <f>"E"&amp;A28&amp;A30</f>
+        <v>ES52</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="12" t="str">
-        <f>"E"&amp;A27&amp;A31</f>
-        <v>ES54</v>
+        <f>"E"&amp;A28&amp;A31</f>
+        <v>ES53</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="12" t="str">
-        <f>"E"&amp;A27&amp;A32</f>
-        <v>ES55</v>
+        <f>"E"&amp;A28&amp;A32</f>
+        <v>ES54</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="12" t="str">
-        <f>"E"&amp;A27&amp;A33</f>
-        <v>ES56</v>
+        <f>"E"&amp;A28&amp;A33</f>
+        <v>ES55</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="12" t="str">
-        <f>"E"&amp;A27&amp;A34</f>
-        <v>ES57</v>
+        <f>"E"&amp;A28&amp;A34</f>
+        <v>ES56</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="12" t="str">
-        <f>"E"&amp;A27&amp;A35</f>
-        <v>ES58</v>
+        <f>"E"&amp;A28&amp;A35</f>
+        <v>ES57</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="12" t="str">
-        <f>"E"&amp;A27&amp;A36</f>
-        <v>ES59</v>
+        <f>"E"&amp;A28&amp;A36</f>
+        <v>ES58</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="12" t="str">
+        <f>"E"&amp;A28&amp;A37</f>
+        <v>ES59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8">
         <v>10</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="12" t="str">
+        <f>"E"&amp;A28&amp;A38</f>
+        <v>ES510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="12" t="str">
-        <f>"E"&amp;A27&amp;A37</f>
-        <v>ES510</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22">
-        <v>1</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="12" t="str">
-        <f>"E"&amp;A38&amp;A39</f>
-        <v>ES61</v>
-      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" s="12" t="str">
-        <f>"E"&amp;A38&amp;A40</f>
-        <v>ES62</v>
+        <f>"E"&amp;A39&amp;A40</f>
+        <v>ES61</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C41" s="12" t="str">
-        <f>"E"&amp;A38&amp;A41</f>
-        <v>ES63</v>
+        <f>"E"&amp;A39&amp;A41</f>
+        <v>ES62</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>98</v>
+        <v>30</v>
       </c>
       <c r="C42" s="12" t="str">
-        <f>"E"&amp;A38&amp;A42</f>
-        <v>ES64</v>
+        <f>"E"&amp;A39&amp;A42</f>
+        <v>ES63</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="12" t="str">
-        <f>"E"&amp;A38&amp;A43</f>
-        <v>ES65</v>
+        <f>"E"&amp;A39&amp;A43</f>
+        <v>ES64</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C44" s="12" t="str">
-        <f>"E"&amp;A38&amp;A44</f>
-        <v>ES66</v>
+        <f>"E"&amp;A39&amp;A44</f>
+        <v>ES65</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="C45" s="12" t="str">
-        <f>"E"&amp;A38&amp;A45</f>
-        <v>ES67</v>
+        <f>"E"&amp;A39&amp;A45</f>
+        <v>ES66</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="12" t="str">
-        <f>"E"&amp;A38&amp;A46</f>
-        <v>ES68</v>
+        <f>"E"&amp;A39&amp;A46</f>
+        <v>ES67</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="12" t="str">
-        <f>"E"&amp;A38&amp;A47</f>
-        <v>ES69</v>
+        <f>"E"&amp;A39&amp;A47</f>
+        <v>ES68</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="12" t="str">
-        <f>"E"&amp;A38&amp;A48</f>
-        <v>ES610</v>
+        <f>"E"&amp;A39&amp;A48</f>
+        <v>ES69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="12" t="str">
-        <f>"E"&amp;A38&amp;A49</f>
-        <v>ES611</v>
+        <f>"E"&amp;A39&amp;A49</f>
+        <v>ES610</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C50" s="12" t="str">
-        <f>"E"&amp;A38&amp;A50</f>
-        <v>ES612</v>
+        <f>"E"&amp;A39&amp;A50</f>
+        <v>ES611</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="12" t="str">
-        <f>"E"&amp;A38&amp;A51</f>
-        <v>ES613</v>
+        <f>"E"&amp;A39&amp;A51</f>
+        <v>ES612</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="22">
+        <v>13</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="12" t="str">
+        <f>"E"&amp;A39&amp;A52</f>
+        <v>ES613</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="22">
         <v>14</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="12" t="str">
-        <f>"E"&amp;A38&amp;A52</f>
+      <c r="C53" s="12" t="str">
+        <f>"E"&amp;A39&amp;A53</f>
         <v>ES614</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B53" s="26" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
-        <v>1</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C54" s="12" t="str">
-        <f>"E"&amp;A53&amp;A54</f>
-        <v>ES71</v>
-      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="12" t="str">
-        <f>"E"&amp;A53&amp;A55</f>
-        <v>ES72</v>
+        <f>"E"&amp;A54&amp;A55</f>
+        <v>ES71</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C56" s="12" t="str">
-        <f>"E"&amp;A53&amp;A56</f>
-        <v>ES73</v>
+        <f>"E"&amp;A54&amp;A56</f>
+        <v>ES72</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C57" s="12" t="str">
-        <f>"E"&amp;A53&amp;A57</f>
-        <v>ES74</v>
+        <f>"E"&amp;A54&amp;A57</f>
+        <v>ES73</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="22">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="12" t="str">
+        <f>"E"&amp;A54&amp;A58</f>
+        <v>ES74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="22">
         <v>5</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="12" t="str">
-        <f>"E"&amp;A53&amp;A58</f>
+      <c r="C59" s="12" t="str">
+        <f>"E"&amp;A54&amp;A59</f>
         <v>ES75</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="B59" s="28" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C60" s="12" t="str">
-        <f>"E"&amp;A59&amp;A60</f>
-        <v>ES81</v>
-      </c>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C61" s="12" t="str">
-        <f>"E"&amp;A59&amp;A61</f>
-        <v>ES82</v>
+        <f>"E"&amp;A60&amp;A61</f>
+        <v>ES81</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C62" s="12" t="str">
-        <f>"E"&amp;A59&amp;A62</f>
-        <v>ES83</v>
+        <f>"E"&amp;A60&amp;A62</f>
+        <v>ES82</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22">
+        <v>3</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="12" t="str">
+        <f>"E"&amp;A60&amp;A63</f>
+        <v>ES83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="22">
         <v>4</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C63" s="12" t="str">
-        <f>"E"&amp;A59&amp;A63</f>
+      <c r="C64" s="12" t="str">
+        <f>"E"&amp;A60&amp;A64</f>
         <v>ES84</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="22">
         <v>5</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="12" t="str">
-        <f>"E"&amp;A59&amp;A64</f>
+      <c r="C65" s="12" t="str">
+        <f>"E"&amp;A60&amp;A65</f>
         <v>ES85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
-        <v>6</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="12" t="str">
-        <f>"E"&amp;A59&amp;A65</f>
-        <v>ES86</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C66" s="12" t="str">
-        <f>"E"&amp;A59&amp;A66</f>
-        <v>ES87</v>
+        <f>"E"&amp;A60&amp;A66</f>
+        <v>ES86</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="22">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C67" s="12" t="str">
+        <f>"E"&amp;A60&amp;A67</f>
+        <v>ES87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="22">
         <v>8</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C67" s="12" t="str">
-        <f>"E"&amp;A59&amp;A67</f>
+      <c r="C68" s="12" t="str">
+        <f>"E"&amp;A60&amp;A68</f>
         <v>ES88</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
+    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="22">
         <v>9</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B69" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C68" s="12" t="str">
-        <f>"E"&amp;A59&amp;A68</f>
+      <c r="C69" s="12" t="str">
+        <f>"E"&amp;A60&amp;A69</f>
         <v>ES89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
-        <v>10</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="12" t="str">
-        <f>"E"&amp;A59&amp;A69</f>
-        <v>ES810</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C70" s="12" t="str">
-        <f>"E"&amp;A59&amp;A70</f>
-        <v>ES811</v>
+        <f>"E"&amp;A60&amp;A70</f>
+        <v>ES810</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="C71" s="12" t="str">
-        <f>"E"&amp;A59&amp;A71</f>
-        <v>ES812</v>
+        <f>"E"&amp;A60&amp;A71</f>
+        <v>ES811</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="22">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C72" s="12" t="str">
-        <f>"E"&amp;A59&amp;A72</f>
-        <v>ES813</v>
+        <f>"E"&amp;A60&amp;A72</f>
+        <v>ES812</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="22">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73" s="12" t="str">
-        <f>"E"&amp;A59&amp;A73</f>
-        <v>ES814</v>
+        <f>"E"&amp;A60&amp;A73</f>
+        <v>ES813</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" s="12" t="str">
-        <f>"E"&amp;A59&amp;A74</f>
-        <v>ES815</v>
+        <f>"E"&amp;A60&amp;A74</f>
+        <v>ES814</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="12" t="str">
-        <f>"E"&amp;A59&amp;A75</f>
-        <v>ES816</v>
+        <f>"E"&amp;A60&amp;A75</f>
+        <v>ES815</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="22">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" s="12" t="str">
-        <f>"E"&amp;A59&amp;A76</f>
-        <v>ES817</v>
+        <f>"E"&amp;A60&amp;A76</f>
+        <v>ES816</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C77" s="12" t="str">
-        <f>"E"&amp;A59&amp;A77</f>
-        <v>ES818</v>
+        <f>"E"&amp;A60&amp;A77</f>
+        <v>ES817</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C78" s="12" t="str">
-        <f>"E"&amp;A59&amp;A78</f>
-        <v>ES819</v>
+        <f>"E"&amp;A60&amp;A78</f>
+        <v>ES818</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="22">
-        <v>20</v>
-      </c>
-      <c r="B79" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="C79" s="12" t="str">
-        <f>"E"&amp;$A$59&amp;A79</f>
-        <v>ES820</v>
+        <f>"E"&amp;A60&amp;A79</f>
+        <v>ES819</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="12" t="str">
-        <f>"E"&amp;$A$59&amp;A80</f>
-        <v>ES821</v>
+        <f>"E"&amp;$A$60&amp;A80</f>
+        <v>ES820</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="12" t="str">
-        <f t="shared" ref="C81:C82" si="0">"E"&amp;$A$59&amp;A81</f>
-        <v>ES822</v>
+        <f>"E"&amp;$A$60&amp;A81</f>
+        <v>ES821</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="22">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="12" t="str">
+        <f t="shared" ref="C82:C83" si="0">"E"&amp;$A$60&amp;A82</f>
+        <v>ES822</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="22">
+        <v>23</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ES823</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B83" s="30" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="22">
-        <v>1</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C84" s="12" t="str">
-        <f>"E"&amp;A83&amp;A84</f>
-        <v>ES91</v>
-      </c>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C85" s="12" t="str">
-        <f>"E"&amp;A83&amp;A85</f>
-        <v>ES92</v>
+        <f>"E"&amp;A84&amp;A85</f>
+        <v>ES91</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C86" s="12" t="str">
-        <f>"E"&amp;A83&amp;A86</f>
-        <v>ES93</v>
+        <f>"E"&amp;A84&amp;A86</f>
+        <v>ES92</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C87" s="12" t="str">
-        <f>"E"&amp;A83&amp;A87</f>
-        <v>ES94</v>
+        <f>"E"&amp;A84&amp;A87</f>
+        <v>ES93</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C88" s="12" t="str">
-        <f>"E"&amp;A83&amp;A88</f>
-        <v>ES95</v>
+        <f>"E"&amp;A84&amp;A88</f>
+        <v>ES94</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C89" s="12" t="str">
-        <f>"E"&amp;A83&amp;A89</f>
-        <v>ES96</v>
+        <f>"E"&amp;A84&amp;A89</f>
+        <v>ES95</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C90" s="12" t="str">
-        <f>"E"&amp;A83&amp;A90</f>
-        <v>ES97</v>
+        <f>"E"&amp;A84&amp;A90</f>
+        <v>ES96</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C91" s="12" t="str">
-        <f>"E"&amp;A83&amp;A91</f>
-        <v>ES98</v>
+        <f>"E"&amp;A84&amp;A91</f>
+        <v>ES97</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C92" s="12" t="str">
-        <f>"E"&amp;A83&amp;A92</f>
-        <v>ES99</v>
+        <f>"E"&amp;A84&amp;A92</f>
+        <v>ES98</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="22">
+        <v>9</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="12" t="str">
+        <f>"E"&amp;A84&amp;A93</f>
+        <v>ES99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="22">
         <v>10</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C93" s="12" t="str">
-        <f>"E"&amp;A83&amp;A93</f>
+      <c r="C94" s="12" t="str">
+        <f>"E"&amp;A84&amp;A94</f>
         <v>ES910</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="12"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C95" s="12"/>
@@ -2614,14 +2626,17 @@
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C102" s="12"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="37" max="16383" man="1"/>
-    <brk id="67" max="16383" man="1"/>
+    <brk id="38" max="16383" man="1"/>
+    <brk id="68" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -2646,14 +2661,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="49" t="s">
-        <v>138</v>
+      <c r="A1" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2661,55 +2676,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="42" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2729,21 +2744,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2768,162 +2783,162 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="47" t="s">
         <v>76</v>
       </c>
       <c r="B1" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C1" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="38" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="49"/>
+      <c r="B3" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="D5" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="C6" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="C7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="41" t="s">
+      <c r="D7" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="C8" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="C6" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="C7" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="C8" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="49"/>
       <c r="C9" s="42" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="49"/>
       <c r="C10" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="47"/>
+      <c r="A11" s="49"/>
       <c r="C11" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
+      <c r="A12" s="49"/>
       <c r="C12" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="49"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="49"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="47"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>142</v>
-      </c>
       <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="47"/>
+      <c r="A20" s="49"/>
       <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="49"/>
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="49"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">

--- a/Document Files/Sign Template Lists.xlsx
+++ b/Document Files/Sign Template Lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Repo\TemplateRepo\Document Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25646CCE-8707-4852-8D9D-E1180712C608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07B57FB-D44B-4C28-A657-B6D9174A23C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{48962D2D-F122-4A88-A158-2C97D5FEC614}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{48962D2D-F122-4A88-A158-2C97D5FEC614}"/>
   </bookViews>
   <sheets>
     <sheet name="Interior Index" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
   <si>
     <t>Panel Signs</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Screw Mount</t>
   </si>
   <si>
-    <t>Quick Order</t>
-  </si>
-  <si>
     <t>Christ Community Church Template</t>
   </si>
   <si>
@@ -93,15 +90,6 @@
     <t>Individual</t>
   </si>
   <si>
-    <t>Pill box or FCO mixer</t>
-  </si>
-  <si>
-    <t>On Slim Raceway (RPC non-applicable)</t>
-  </si>
-  <si>
-    <t>On Taller Slim Raceway</t>
-  </si>
-  <si>
     <t>Pill box Mixer on Slim Raceway</t>
   </si>
   <si>
@@ -141,9 +129,6 @@
     <t>Parking Signs</t>
   </si>
   <si>
-    <t>Handicap</t>
-  </si>
-  <si>
     <t>No Parking, etc. Signs</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>Face replacement</t>
   </si>
   <si>
-    <t>Brand New</t>
-  </si>
-  <si>
     <t>Re-painted</t>
   </si>
   <si>
@@ -276,9 +258,6 @@
     <t>Panels / Faces</t>
   </si>
   <si>
-    <t>Change Track Lexan Faces</t>
-  </si>
-  <si>
     <t xml:space="preserve">Did we get the survey? </t>
   </si>
   <si>
@@ -291,9 +270,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Pill Box or FCO Mixed</t>
-  </si>
-  <si>
     <t>Perf Vinyl Digitally Printed</t>
   </si>
   <si>
@@ -477,20 +453,65 @@
     <t>Retractable Banner</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>Window Vinyl - White</t>
   </si>
   <si>
     <t>Cut vinyl - applied</t>
+  </si>
+  <si>
+    <t>Banner Drawing 3'x10'</t>
+  </si>
+  <si>
+    <t>PC and Pill Box</t>
+  </si>
+  <si>
+    <t>PC and FCO</t>
+  </si>
+  <si>
+    <t>On Slim Raceway</t>
+  </si>
+  <si>
+    <t>Face Replacement</t>
+  </si>
+  <si>
+    <t>PC Pill Box on Slim Raceway</t>
+  </si>
+  <si>
+    <t>Taller Slim Raceway</t>
+  </si>
+  <si>
+    <t>Yellow = Logged in Files</t>
+  </si>
+  <si>
+    <t>Handicap Panel Signs</t>
+  </si>
+  <si>
+    <t>S/F Cab</t>
+  </si>
+  <si>
+    <t>Labels:</t>
+  </si>
+  <si>
+    <t>Black = Depricated</t>
+  </si>
+  <si>
+    <t>RPC With FCO</t>
+  </si>
+  <si>
+    <t>RPC Slim Raceway</t>
+  </si>
+  <si>
+    <t>Change Track Face Change</t>
+  </si>
+  <si>
+    <t>Total signs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,8 +641,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +703,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +817,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -806,7 +854,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="4" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -826,7 +873,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -858,6 +904,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1181,10 +1257,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,37 +1272,37 @@
     <col min="5" max="5" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>82</v>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="D1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="31" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -1238,43 +1314,43 @@
         <v>IS11</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>109</v>
+      <c r="B4" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="C4" s="12" t="str">
         <f>"I"&amp;$A$2&amp;A4</f>
         <v>IS12</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>110</v>
+      <c r="B5" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="C5" s="12" t="str">
         <f>"I"&amp;$A$2&amp;A5</f>
         <v>IS13</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -1285,34 +1361,34 @@
         <f>"I"&amp;$A$2&amp;A6</f>
         <v>IS14</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>108</v>
+      <c r="B7" s="31" t="s">
+        <v>100</v>
       </c>
       <c r="C7" s="12" t="str">
         <f>"I"&amp;$A$2&amp;A7</f>
         <v>IS15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="34">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
         <v>1</v>
       </c>
       <c r="B9" t="s">
@@ -1323,8 +1399,8 @@
         <v>IS21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="34">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
         <v>2</v>
       </c>
       <c r="B10" t="s">
@@ -1335,121 +1411,108 @@
         <v>IS22</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="30" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="12" t="str">
+        <f t="shared" ref="C11:C13" si="0">"I"&amp;$A$8&amp;A11</f>
+        <v>IS23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>IS24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>IS25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="34">
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="12" t="str">
-        <f>"I"&amp;$A$11&amp;A12</f>
+      <c r="B15" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="12" t="str">
+        <f>"I"&amp;$A$14&amp;A15</f>
         <v>IS31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="10" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="34">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="12" t="str">
-        <f>"I"&amp;$A$13&amp;A14</f>
+      <c r="C17" s="12" t="str">
+        <f>"I"&amp;$A$16&amp;A17</f>
         <v>IS41</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="34">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
         <v>2</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="12" t="str">
-        <f>"I"&amp;$A$13&amp;A15</f>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="12" t="str">
+        <f>"I"&amp;$A$16&amp;A18</f>
         <v>IS42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="34">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
         <v>3</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C16" s="12" t="str">
-        <f>"I"&amp;$A$13&amp;A16</f>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="12" t="str">
+        <f>"I"&amp;$A$16&amp;A19</f>
         <v>IS43</v>
-      </c>
-      <c r="F16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C18" s="12" t="str">
-        <f>"I"&amp;$A$17&amp;A18</f>
-        <v>IS51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C19" s="12" t="str">
-        <f>"I"&amp;$A$17&amp;A19</f>
-        <v>IS52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="34">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="12" t="str">
-        <f>"I"&amp;$A$17&amp;A20</f>
-        <v>IS53</v>
       </c>
     </row>
   </sheetData>
@@ -1463,10 +1526,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,1164 +1542,1219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>82</v>
+      <c r="A1" s="23" t="s">
+        <v>75</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>91</v>
-      </c>
       <c r="D1" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>73</v>
+        <v>84</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="31" t="s">
-        <v>106</v>
+      <c r="A2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="30" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="48" t="str">
         <f>"E"&amp;A2&amp;A3</f>
         <v>ES11</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="31" t="s">
-        <v>86</v>
+        <v>91</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="A4" s="49">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="48" t="str">
         <f>"E"&amp;A2&amp;A4</f>
         <v>ES12</v>
       </c>
-      <c r="E4" s="31" t="s">
-        <v>103</v>
+      <c r="E4" s="30" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="57">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="12" t="str">
+      <c r="C5" s="58" t="str">
         <f>"E"&amp;A2&amp;A5</f>
         <v>ES13</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>104</v>
+      <c r="E5" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="A6" s="49">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12" t="str">
+      <c r="B6" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="48" t="str">
         <f>"E"&amp;A2&amp;A6</f>
         <v>ES14</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>105</v>
+      <c r="E6" s="30" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="49">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="12" t="str">
+      <c r="B7" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="48" t="str">
         <f>"E"&amp;A2&amp;A7</f>
         <v>ES15</v>
       </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="A8" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="30" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18">
+      <c r="A9" s="49">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="12" t="str">
+      <c r="B9" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="48" t="str">
         <f>"E"&amp;A8&amp;A9</f>
         <v>ES21</v>
       </c>
+      <c r="E9" s="59" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="18">
+      <c r="A10" s="49">
         <v>2</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="12" t="str">
+      <c r="B10" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="48" t="str">
         <f>"E"&amp;A8&amp;A10</f>
         <v>ES22</v>
       </c>
+      <c r="E10" s="58" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18">
+      <c r="A11" s="49">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="12" t="str">
+      <c r="B11" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="48" t="str">
         <f>"E"&amp;A8&amp;A11</f>
         <v>ES23</v>
       </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="A12" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="49">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="12" t="str">
+      <c r="B13" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="48" t="str">
         <f>"E"&amp;A12&amp;A13</f>
         <v>ES31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="18">
+      <c r="A14" s="49">
         <v>2</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="12" t="str">
+      <c r="B14" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="48" t="str">
         <f>"E"&amp;A12&amp;A14</f>
         <v>ES32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="49">
         <v>3</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="12" t="str">
+      <c r="B15" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="48" t="str">
         <f>"E"&amp;A12&amp;A15</f>
         <v>ES33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="49">
         <v>4</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="12" t="str">
+      <c r="B16" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="48" t="str">
         <f>"E"&amp;A12&amp;A16</f>
         <v>ES34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
+      <c r="A17" s="49">
         <v>5</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="12" t="str">
+      <c r="B17" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="48" t="str">
         <f>"E"&amp;A12&amp;A17</f>
         <v>ES35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="49">
         <v>6</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="12" t="str">
+      <c r="B18" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="48" t="str">
         <f>"E"&amp;A12&amp;A18</f>
         <v>ES36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18">
+      <c r="A19" s="49">
         <v>7</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="12" t="str">
+      <c r="B19" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="48" t="str">
         <f>"E"&amp;A12&amp;A19</f>
         <v>ES37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="18">
+      <c r="A20" s="57">
         <v>8</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="12" t="str">
+      <c r="B20" s="58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="58" t="str">
         <f>"E"&amp;A12&amp;A20</f>
         <v>ES38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="49">
         <v>9</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="12" t="str">
+      <c r="B21" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="48" t="str">
         <f>"E"&amp;A12&amp;A21</f>
         <v>ES39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18">
+      <c r="A22" s="49">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="12" t="str">
+      <c r="B22" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="48" t="str">
         <f>"E"&amp;A12&amp;A22</f>
         <v>ES310</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18">
+      <c r="A23" s="49">
         <v>11</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="12" t="str">
+      <c r="B23" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="48" t="str">
         <f>"E"&amp;A12&amp;A23</f>
         <v>ES311</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="60">
+        <v>12</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="56" t="str">
+        <f>"E"&amp;A12&amp;A24</f>
+        <v>ES312</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
+        <v>1</v>
+      </c>
+      <c r="B26" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="48" t="str">
+        <f>"E"&amp;$A$25&amp;A26</f>
+        <v>ES41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="53">
+        <v>2</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="55" t="str">
+        <f>"E"&amp;$A$25&amp;A27</f>
+        <v>ES42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="53">
+        <v>3</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="C28" s="55" t="str">
+        <f>"E"&amp;$A$25&amp;A28</f>
+        <v>ES43</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="49">
+        <v>1</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="48" t="str">
+        <f>"E"&amp;A29&amp;A30</f>
+        <v>ES51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="49">
+        <v>2</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="48" t="str">
+        <f>"E"&amp;A29&amp;A31</f>
+        <v>ES52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="49">
+        <v>3</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="48" t="str">
+        <f>"E"&amp;A29&amp;A32</f>
+        <v>ES53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="49">
+        <v>4</v>
+      </c>
+      <c r="B33" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="48" t="str">
+        <f>"E"&amp;A29&amp;A33</f>
+        <v>ES54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="60">
+        <v>5</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="56" t="str">
+        <f>"E"&amp;A29&amp;A34</f>
+        <v>ES55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="60">
+        <v>6</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="56" t="str">
+        <f>"E"&amp;A29&amp;A35</f>
+        <v>ES56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="49">
+        <v>7</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="48" t="str">
+        <f>"E"&amp;A29&amp;A36</f>
+        <v>ES57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="60">
+        <v>8</v>
+      </c>
+      <c r="B37" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="56" t="str">
+        <f>"E"&amp;A29&amp;A37</f>
+        <v>ES58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="60">
+        <v>9</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="56" t="str">
+        <f>"E"&amp;A29&amp;A38</f>
+        <v>ES59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="60">
+        <v>10</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="56" t="str">
+        <f>"E"&amp;A29&amp;A39</f>
+        <v>ES510</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="60">
+        <v>1</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="56" t="str">
+        <f>"E"&amp;A40&amp;A41</f>
+        <v>ES61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="51">
+        <v>2</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="48" t="str">
+        <f>"E"&amp;A40&amp;A42</f>
+        <v>ES62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="60">
+        <v>3</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="56" t="str">
+        <f>"E"&amp;A40&amp;A43</f>
+        <v>ES63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="51">
+        <v>4</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="48" t="str">
+        <f>"E"&amp;A40&amp;A44</f>
+        <v>ES64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="60">
+        <v>5</v>
+      </c>
+      <c r="B45" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="C45" s="56" t="str">
+        <f>"E"&amp;A40&amp;A45</f>
+        <v>ES65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="60">
+        <v>6</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="56" t="str">
+        <f>"E"&amp;A40&amp;A46</f>
+        <v>ES66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="60">
         <v>7</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18">
+      <c r="B47" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="56" t="str">
+        <f>"E"&amp;A40&amp;A47</f>
+        <v>ES67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="60">
+        <v>8</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="56" t="str">
+        <f>"E"&amp;A40&amp;A48</f>
+        <v>ES68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="33">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="12" t="str">
+        <f>"E"&amp;A40&amp;A49</f>
+        <v>ES69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="51">
+        <v>10</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="48" t="str">
+        <f>"E"&amp;A40&amp;A50</f>
+        <v>ES610</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="33">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="12" t="str">
+        <f>"E"&amp;A40&amp;A51</f>
+        <v>ES611</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="33">
+        <v>12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="12" t="str">
+        <f>"E"&amp;A40&amp;A52</f>
+        <v>ES612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="60">
+        <v>13</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="56" t="str">
+        <f>"E"&amp;A40&amp;A53</f>
+        <v>ES613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="60">
+        <v>14</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="56" t="str">
+        <f>"E"&amp;A40&amp;A54</f>
+        <v>ES614</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="51">
         <v>1</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C25" s="12" t="str">
-        <f>"E"&amp;$A$24&amp;A25</f>
-        <v>ES41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18">
+      <c r="B56" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="48" t="str">
+        <f>"E"&amp;A55&amp;A56</f>
+        <v>ES71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="51">
         <v>2</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="12" t="str">
-        <f>"E"&amp;$A$24&amp;A26</f>
-        <v>ES42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="18">
+      <c r="B57" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" s="48" t="str">
+        <f>"E"&amp;A55&amp;A57</f>
+        <v>ES72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="63">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C27" s="12" t="str">
-        <f>"E"&amp;$A$24&amp;A27</f>
-        <v>ES43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="B58" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C58" s="56" t="str">
+        <f>"E"&amp;A55&amp;A58</f>
+        <v>ES73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="63">
+        <v>4</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="56" t="str">
+        <f>"E"&amp;A55&amp;A59</f>
+        <v>ES74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="33">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" s="12" t="str">
+        <f>"E"&amp;A55&amp;A60</f>
+        <v>ES75</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="B61" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="51">
         <v>1</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B62" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="48" t="str">
+        <f>"E"&amp;A61&amp;A62</f>
+        <v>ES81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="33">
+        <v>2</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="12" t="str">
+        <f>"E"&amp;A61&amp;A63</f>
+        <v>ES82</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="33">
+        <v>3</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="12" t="str">
+        <f>"E"&amp;A61&amp;A64</f>
+        <v>ES83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
+        <v>4</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="12" t="str">
+        <f>"E"&amp;A61&amp;A65</f>
+        <v>ES84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="33">
+        <v>5</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="12" t="str">
+        <f>"E"&amp;A61&amp;A66</f>
+        <v>ES85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="51">
+        <v>6</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="48" t="str">
+        <f>"E"&amp;A61&amp;A67</f>
+        <v>ES86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="33">
+        <v>7</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="12" t="str">
+        <f>"E"&amp;A61&amp;A68</f>
+        <v>ES87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="33">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="12" t="str">
+        <f>"E"&amp;A61&amp;A69</f>
+        <v>ES88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="33">
+        <v>9</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="12" t="str">
+        <f>"E"&amp;A61&amp;A70</f>
+        <v>ES89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="51">
+        <v>10</v>
+      </c>
+      <c r="B71" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="48" t="str">
+        <f>"E"&amp;A61&amp;A71</f>
+        <v>ES810</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="33">
+        <v>11</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="12" t="str">
+        <f>"E"&amp;A61&amp;A72</f>
+        <v>ES811</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="33">
+        <v>12</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C73" s="12" t="str">
+        <f>"E"&amp;A61&amp;A73</f>
+        <v>ES812</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="33">
+        <v>13</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C74" s="12" t="str">
+        <f>"E"&amp;A61&amp;A74</f>
+        <v>ES813</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="33">
+        <v>14</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="12" t="str">
+        <f>"E"&amp;A61&amp;A75</f>
+        <v>ES814</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="33">
+        <v>15</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C76" s="12" t="str">
+        <f>"E"&amp;A61&amp;A76</f>
+        <v>ES815</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="33">
+        <v>16</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="12" t="str">
+        <f>"E"&amp;A61&amp;A77</f>
+        <v>ES816</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="33">
         <v>17</v>
       </c>
-      <c r="C29" s="12" t="str">
-        <f>"E"&amp;A28&amp;A29</f>
-        <v>ES51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>2</v>
-      </c>
-      <c r="B30" s="1" t="s">
+      <c r="B78" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="12" t="str">
+        <f>"E"&amp;A61&amp;A78</f>
+        <v>ES817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="33">
         <v>18</v>
       </c>
-      <c r="C30" s="12" t="str">
-        <f>"E"&amp;A28&amp;A30</f>
-        <v>ES52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>3</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="B79" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C79" s="12" t="str">
+        <f>"E"&amp;A61&amp;A79</f>
+        <v>ES818</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="33">
+        <v>19</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C80" s="12" t="str">
+        <f>"E"&amp;A61&amp;A80</f>
+        <v>ES819</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="33">
         <v>20</v>
-      </c>
-      <c r="C31" s="12" t="str">
-        <f>"E"&amp;A28&amp;A31</f>
-        <v>ES53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="12" t="str">
-        <f>"E"&amp;A28&amp;A32</f>
-        <v>ES54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>5</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" s="12" t="str">
-        <f>"E"&amp;A28&amp;A33</f>
-        <v>ES55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="12" t="str">
-        <f>"E"&amp;A28&amp;A34</f>
-        <v>ES56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" s="12" t="str">
-        <f>"E"&amp;A28&amp;A35</f>
-        <v>ES57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>8</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="12" t="str">
-        <f>"E"&amp;A28&amp;A36</f>
-        <v>ES58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>9</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="12" t="str">
-        <f>"E"&amp;A28&amp;A37</f>
-        <v>ES59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>10</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="12" t="str">
-        <f>"E"&amp;A28&amp;A38</f>
-        <v>ES510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="22">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="12" t="str">
-        <f>"E"&amp;A39&amp;A40</f>
-        <v>ES61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
-        <v>2</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="12" t="str">
-        <f>"E"&amp;A39&amp;A41</f>
-        <v>ES62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="22">
-        <v>3</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="12" t="str">
-        <f>"E"&amp;A39&amp;A42</f>
-        <v>ES63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="22">
-        <v>4</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="12" t="str">
-        <f>"E"&amp;A39&amp;A43</f>
-        <v>ES64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="22">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C44" s="12" t="str">
-        <f>"E"&amp;A39&amp;A44</f>
-        <v>ES65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="22">
-        <v>6</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C45" s="12" t="str">
-        <f>"E"&amp;A39&amp;A45</f>
-        <v>ES66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="22">
-        <v>7</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="12" t="str">
-        <f>"E"&amp;A39&amp;A46</f>
-        <v>ES67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
-        <v>8</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="12" t="str">
-        <f>"E"&amp;A39&amp;A47</f>
-        <v>ES68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
-        <v>9</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="12" t="str">
-        <f>"E"&amp;A39&amp;A48</f>
-        <v>ES69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="22">
-        <v>10</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="12" t="str">
-        <f>"E"&amp;A39&amp;A49</f>
-        <v>ES610</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="22">
-        <v>11</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C50" s="12" t="str">
-        <f>"E"&amp;A39&amp;A50</f>
-        <v>ES611</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
-        <v>12</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="12" t="str">
-        <f>"E"&amp;A39&amp;A51</f>
-        <v>ES612</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="22">
-        <v>13</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" s="12" t="str">
-        <f>"E"&amp;A39&amp;A52</f>
-        <v>ES613</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="22">
-        <v>14</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="12" t="str">
-        <f>"E"&amp;A39&amp;A53</f>
-        <v>ES614</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="22">
-        <v>1</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C55" s="12" t="str">
-        <f>"E"&amp;A54&amp;A55</f>
-        <v>ES71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="22">
-        <v>2</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="12" t="str">
-        <f>"E"&amp;A54&amp;A56</f>
-        <v>ES72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="22">
-        <v>3</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="12" t="str">
-        <f>"E"&amp;A54&amp;A57</f>
-        <v>ES73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="22">
-        <v>4</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="12" t="str">
-        <f>"E"&amp;A54&amp;A58</f>
-        <v>ES74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22">
-        <v>5</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="12" t="str">
-        <f>"E"&amp;A54&amp;A59</f>
-        <v>ES75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="12" t="str">
-        <f>"E"&amp;A60&amp;A61</f>
-        <v>ES81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="22">
-        <v>2</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="12" t="str">
-        <f>"E"&amp;A60&amp;A62</f>
-        <v>ES82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22">
-        <v>3</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="12" t="str">
-        <f>"E"&amp;A60&amp;A63</f>
-        <v>ES83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="22">
-        <v>4</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C64" s="12" t="str">
-        <f>"E"&amp;A60&amp;A64</f>
-        <v>ES84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="22">
-        <v>5</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C65" s="12" t="str">
-        <f>"E"&amp;A60&amp;A65</f>
-        <v>ES85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="22">
-        <v>6</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="12" t="str">
-        <f>"E"&amp;A60&amp;A66</f>
-        <v>ES86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="22">
-        <v>7</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C67" s="12" t="str">
-        <f>"E"&amp;A60&amp;A67</f>
-        <v>ES87</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="22">
-        <v>8</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C68" s="12" t="str">
-        <f>"E"&amp;A60&amp;A68</f>
-        <v>ES88</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="22">
-        <v>9</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C69" s="12" t="str">
-        <f>"E"&amp;A60&amp;A69</f>
-        <v>ES89</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
-        <v>10</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="12" t="str">
-        <f>"E"&amp;A60&amp;A70</f>
-        <v>ES810</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="22">
-        <v>11</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="12" t="str">
-        <f>"E"&amp;A60&amp;A71</f>
-        <v>ES811</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="22">
-        <v>12</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C72" s="12" t="str">
-        <f>"E"&amp;A60&amp;A72</f>
-        <v>ES812</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="22">
-        <v>13</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" s="12" t="str">
-        <f>"E"&amp;A60&amp;A73</f>
-        <v>ES813</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="22">
-        <v>14</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C74" s="12" t="str">
-        <f>"E"&amp;A60&amp;A74</f>
-        <v>ES814</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="22">
-        <v>15</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="12" t="str">
-        <f>"E"&amp;A60&amp;A75</f>
-        <v>ES815</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="22">
-        <v>16</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="12" t="str">
-        <f>"E"&amp;A60&amp;A76</f>
-        <v>ES816</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="22">
-        <v>17</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C77" s="12" t="str">
-        <f>"E"&amp;A60&amp;A77</f>
-        <v>ES817</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
-        <v>18</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C78" s="12" t="str">
-        <f>"E"&amp;A60&amp;A78</f>
-        <v>ES818</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="22">
-        <v>19</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C79" s="12" t="str">
-        <f>"E"&amp;A60&amp;A79</f>
-        <v>ES819</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="22">
-        <v>20</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="12" t="str">
-        <f>"E"&amp;$A$60&amp;A80</f>
-        <v>ES820</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="22">
-        <v>21</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="12" t="str">
-        <f>"E"&amp;$A$60&amp;A81</f>
-        <v>ES821</v>
+        <f>"E"&amp;$A$61&amp;A81</f>
+        <v>ES820</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="22">
-        <v>22</v>
+      <c r="A82" s="33">
+        <v>21</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="12" t="str">
-        <f t="shared" ref="C82:C83" si="0">"E"&amp;$A$60&amp;A82</f>
-        <v>ES822</v>
+        <f>"E"&amp;$A$61&amp;A82</f>
+        <v>ES821</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="22">
-        <v>23</v>
+      <c r="A83" s="33">
+        <v>22</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="12" t="str">
+        <f t="shared" ref="C83:C84" si="0">"E"&amp;$A$61&amp;A83</f>
+        <v>ES822</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="33">
+        <v>23</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" s="12" t="str">
         <f t="shared" si="0"/>
         <v>ES823</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B84" s="30" t="s">
+      <c r="D84">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="62">
+        <v>1</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86" s="55" t="str">
+        <f>"E"&amp;A85&amp;A86</f>
+        <v>ES91</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="62">
+        <v>2</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="55" t="str">
+        <f>"E"&amp;A85&amp;A87</f>
+        <v>ES92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="62">
+        <v>3</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="55" t="str">
+        <f>"E"&amp;A85&amp;A88</f>
+        <v>ES93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="51">
+        <v>4</v>
+      </c>
+      <c r="B89" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" s="48" t="str">
+        <f>"E"&amp;A85&amp;A89</f>
+        <v>ES94</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="51">
+        <v>5</v>
+      </c>
+      <c r="B90" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="48" t="str">
+        <f>"E"&amp;A85&amp;A90</f>
+        <v>ES95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="51">
+        <v>6</v>
+      </c>
+      <c r="B91" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="22">
-        <v>1</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="C91" s="48" t="str">
+        <f>"E"&amp;A85&amp;A91</f>
+        <v>ES96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="33">
+        <v>7</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C85" s="12" t="str">
-        <f>"E"&amp;A84&amp;A85</f>
-        <v>ES91</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="22">
-        <v>2</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="C92" s="12" t="str">
+        <f>"E"&amp;A85&amp;A92</f>
+        <v>ES97</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="62">
+        <v>8</v>
+      </c>
+      <c r="B93" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C86" s="12" t="str">
-        <f>"E"&amp;A84&amp;A86</f>
-        <v>ES92</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="22">
-        <v>3</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="C93" s="55" t="str">
+        <f>"E"&amp;A85&amp;A93</f>
+        <v>ES98</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="62">
+        <v>9</v>
+      </c>
+      <c r="B94" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C87" s="12" t="str">
-        <f>"E"&amp;A84&amp;A87</f>
-        <v>ES93</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="22">
-        <v>4</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="C94" s="55" t="str">
+        <f>"E"&amp;A85&amp;A94</f>
+        <v>ES99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="51">
+        <v>10</v>
+      </c>
+      <c r="B95" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="C88" s="12" t="str">
-        <f>"E"&amp;A84&amp;A88</f>
-        <v>ES94</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="22">
-        <v>5</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" s="12" t="str">
-        <f>"E"&amp;A84&amp;A89</f>
-        <v>ES95</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="22">
-        <v>6</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C90" s="12" t="str">
-        <f>"E"&amp;A84&amp;A90</f>
-        <v>ES96</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="22">
-        <v>7</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C91" s="12" t="str">
-        <f>"E"&amp;A84&amp;A91</f>
-        <v>ES97</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="22">
-        <v>8</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C92" s="12" t="str">
-        <f>"E"&amp;A84&amp;A92</f>
-        <v>ES98</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="22">
-        <v>9</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C93" s="12" t="str">
-        <f>"E"&amp;A84&amp;A93</f>
-        <v>ES99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="22">
-        <v>10</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C94" s="12" t="str">
-        <f>"E"&amp;A84&amp;A94</f>
+      <c r="C95" s="48" t="str">
+        <f>"E"&amp;A85&amp;A95</f>
         <v>ES910</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="12"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C96" s="12"/>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" s="12"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" s="12"/>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f>SUM(D7,D11,D24,D28,D39,D54,D60,D84,D96)-25</f>
+        <v>56</v>
+      </c>
+      <c r="E98" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" s="12"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C100" s="12"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C101" s="12"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C102" s="12"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C103" s="12"/>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C104" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="38" max="16383" man="1"/>
-    <brk id="68" max="16383" man="1"/>
+    <brk id="39" max="16383" man="1"/>
+    <brk id="69" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -2661,104 +2779,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>137</v>
+      <c r="A1" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>139</v>
+      <c r="B2" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>127</v>
+        <v>136</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="40" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="41" t="s">
-        <v>134</v>
+      <c r="B5" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="38" t="s">
-        <v>121</v>
+      <c r="B6" s="36" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>123</v>
+      <c r="B7" s="36" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="42" t="s">
-        <v>136</v>
+      <c r="B8" s="40" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="42" t="s">
-        <v>81</v>
+      <c r="B9" s="40" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>138</v>
+        <v>123</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2783,174 +2901,174 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="42" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="A1" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="C6" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="C7" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="44" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="39" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="C8" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="C9" s="40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="C10" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="47"/>
+      <c r="C11" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="47"/>
+      <c r="C12" s="40" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="C6" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6" s="4" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="47" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="C7" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="47"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="47"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="47"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="47" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="C8" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="C9" s="42" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="C10" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="C11" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="C12" s="42" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="49" t="s">
-        <v>141</v>
-      </c>
       <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
+      <c r="A20" s="47"/>
       <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
+      <c r="A21" s="47"/>
       <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="47"/>
       <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="44"/>
       <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="44"/>
       <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="44"/>
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
